--- a/account/lecturer.xlsx
+++ b/account/lecturer.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>edf</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lê Văn Y</t>
+          <t>Nguyễn Thị C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NMLT</t>
+          <t>GIS_DC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -493,14 +493,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>n02</t>
+          <t>n01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Z</t>
+          <t>Lê Văn Y</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -513,19 +513,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>n03</t>
+          <t>n02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Đặng Văn Q</t>
+          <t>Nguyễn Văn Z</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KTCT</t>
+          <t>NMLT</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -533,14 +533,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>k01</t>
+          <t>n03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Trần Văn Q</t>
+          <t>Đặng Văn Q</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -553,19 +553,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>k02</t>
+          <t>k01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lý Thị B</t>
+          <t>Trần Văn Q</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GPS</t>
+          <t>KTCT</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>gp01</t>
+          <t>k02</t>
         </is>
       </c>
     </row>
@@ -593,19 +593,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gp02</t>
+          <t>gp01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Đoàn Văn C</t>
+          <t>Lý Thị B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GIS_DC</t>
+          <t>GPS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -613,25 +613,45 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>gi01</t>
+          <t>gp02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Đoàn Văn C</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GIS_DC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>123</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>gi01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Lê Văn Y</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>GIS_DC</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>123</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C11" t="n">
+        <v>123</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>gi02</t>
         </is>
